--- a/analyze.xlsx
+++ b/analyze.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\AI-Powered Apps Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3422B2-744A-47D2-9DC8-A8D4CC395838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D68D7D-04E3-461A-9BA9-A84472C8C259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="21690" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="8" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId2"/>
-    <sheet name="clean_data (4)" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="10" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="9" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="11" r:id="rId3"/>
+    <sheet name="clean_data (4)" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'clean_data (4)'!$A$1:$M$164</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'clean_data (4)'!$A$1:$M$164</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
-    <pivotCache cacheId="6" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="193">
   <si>
     <t>Gender</t>
   </si>
@@ -577,12 +578,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
-    <t>Average of ease of use</t>
-  </si>
-  <si>
     <t>Count of apps used</t>
   </si>
   <si>
@@ -644,15 +639,18 @@
   </si>
   <si>
     <t>Count of Chat-GPT</t>
+  </si>
+  <si>
+    <t>Average of perceived usefulness</t>
+  </si>
+  <si>
+    <t>Average of domain proficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -688,34 +686,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -760,7 +743,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{F6328CBC-C0F3-423F-BA1A-74BEAA1D64EC}">
-      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -872,7 +855,13 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="domain proficiency" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="5"/>
+        <n v="4"/>
+        <n v="3"/>
+        <n v="2"/>
+        <n v="1"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="perceived usefulness" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="5"/>
@@ -969,7 +958,7 @@
     <x v="0"/>
     <s v="friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -984,7 +973,7 @@
     <x v="1"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tháng"/>
@@ -999,7 +988,7 @@
     <x v="2"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="4"/>
     <n v="3"/>
     <s v="Hàng tuần"/>
@@ -1014,7 +1003,7 @@
     <x v="1"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -1029,7 +1018,7 @@
     <x v="3"/>
     <s v="friends recommendation"/>
     <n v="5"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hiếm khi"/>
@@ -1044,7 +1033,7 @@
     <x v="4"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="3"/>
     <s v="Hàng tuần"/>
@@ -1059,7 +1048,7 @@
     <x v="3"/>
     <s v="friends recommendation"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -1074,7 +1063,7 @@
     <x v="3"/>
     <s v="friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng ngày"/>
@@ -1089,7 +1078,7 @@
     <x v="5"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -1104,7 +1093,7 @@
     <x v="6"/>
     <s v="social media, friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="4"/>
     <s v="Hiếm khi"/>
@@ -1119,7 +1108,7 @@
     <x v="7"/>
     <s v="social media"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng ngày"/>
@@ -1134,7 +1123,7 @@
     <x v="6"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -1149,7 +1138,7 @@
     <x v="0"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -1164,7 +1153,7 @@
     <x v="8"/>
     <s v="friends recommendation"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="5"/>
     <n v="4"/>
     <s v="Hiếm khi"/>
@@ -1179,7 +1168,7 @@
     <x v="1"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -1194,7 +1183,7 @@
     <x v="9"/>
     <s v="social media"/>
     <n v="3"/>
-    <n v="2"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng tháng"/>
@@ -1209,7 +1198,7 @@
     <x v="10"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -1224,7 +1213,7 @@
     <x v="3"/>
     <s v="friends recommendation"/>
     <n v="5"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -1239,7 +1228,7 @@
     <x v="11"/>
     <s v="independent discovery"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="3"/>
     <s v="Hàng ngày"/>
@@ -1254,7 +1243,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hiếm khi"/>
@@ -1269,7 +1258,7 @@
     <x v="12"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hiếm khi"/>
@@ -1284,7 +1273,7 @@
     <x v="8"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -1299,7 +1288,7 @@
     <x v="11"/>
     <s v="social media"/>
     <n v="3"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -1314,7 +1303,7 @@
     <x v="3"/>
     <s v="social media, friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng ngày"/>
@@ -1329,7 +1318,7 @@
     <x v="6"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng tuần"/>
@@ -1344,7 +1333,7 @@
     <x v="4"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -1359,7 +1348,7 @@
     <x v="1"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -1374,7 +1363,7 @@
     <x v="13"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="2"/>
+    <x v="3"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -1389,7 +1378,7 @@
     <x v="14"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="5"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -1404,7 +1393,7 @@
     <x v="1"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -1419,7 +1408,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -1434,7 +1423,7 @@
     <x v="15"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -1449,7 +1438,7 @@
     <x v="1"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -1464,7 +1453,7 @@
     <x v="0"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -1479,7 +1468,7 @@
     <x v="9"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -1494,7 +1483,7 @@
     <x v="16"/>
     <s v="friends recommendation"/>
     <n v="3"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -1509,7 +1498,7 @@
     <x v="17"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -1524,7 +1513,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tháng"/>
@@ -1539,7 +1528,7 @@
     <x v="18"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -1554,7 +1543,7 @@
     <x v="19"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -1569,7 +1558,7 @@
     <x v="20"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -1584,7 +1573,7 @@
     <x v="14"/>
     <s v="social media, friends recommendation"/>
     <n v="1"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="2"/>
     <n v="1"/>
     <s v="Hàng tuần"/>
@@ -1599,7 +1588,7 @@
     <x v="21"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -1614,7 +1603,7 @@
     <x v="9"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -1629,7 +1618,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="5"/>
     <s v="Hàng tháng"/>
@@ -1644,7 +1633,7 @@
     <x v="3"/>
     <s v="social media, friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng tuần"/>
@@ -1659,7 +1648,7 @@
     <x v="22"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -1674,7 +1663,7 @@
     <x v="23"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -1689,7 +1678,7 @@
     <x v="3"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="2"/>
+    <x v="3"/>
     <n v="2"/>
     <n v="2"/>
     <s v="Hàng tháng"/>
@@ -1704,7 +1693,7 @@
     <x v="20"/>
     <s v="social media"/>
     <n v="3"/>
-    <n v="2"/>
+    <x v="3"/>
     <n v="2"/>
     <n v="4"/>
     <s v="Hiếm khi"/>
@@ -1719,7 +1708,7 @@
     <x v="24"/>
     <s v="social media"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -1734,7 +1723,7 @@
     <x v="4"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -1749,7 +1738,7 @@
     <x v="25"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="2"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -1764,7 +1753,7 @@
     <x v="3"/>
     <s v="friends recommendation"/>
     <n v="3"/>
-    <n v="2"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="4"/>
     <s v="Hiếm khi"/>
@@ -1779,7 +1768,7 @@
     <x v="4"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -1794,7 +1783,7 @@
     <x v="25"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -1809,7 +1798,7 @@
     <x v="26"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="2"/>
+    <x v="3"/>
     <n v="4"/>
     <n v="2"/>
     <s v="Hiếm khi"/>
@@ -1824,7 +1813,7 @@
     <x v="11"/>
     <s v="friends recommendation"/>
     <n v="4"/>
-    <n v="2"/>
+    <x v="3"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -1839,7 +1828,7 @@
     <x v="27"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -1854,7 +1843,7 @@
     <x v="14"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -1869,7 +1858,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng ngày"/>
@@ -1884,7 +1873,7 @@
     <x v="4"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="5"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -1899,7 +1888,7 @@
     <x v="2"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="3"/>
     <s v="Hàng tháng"/>
@@ -1914,7 +1903,7 @@
     <x v="3"/>
     <s v="friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tháng"/>
@@ -1929,7 +1918,7 @@
     <x v="28"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -1944,7 +1933,7 @@
     <x v="29"/>
     <s v="social media, friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hiếm khi"/>
@@ -1959,7 +1948,7 @@
     <x v="3"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -1974,7 +1963,7 @@
     <x v="30"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -1989,7 +1978,7 @@
     <x v="31"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -2004,7 +1993,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -2019,7 +2008,7 @@
     <x v="21"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -2034,7 +2023,7 @@
     <x v="32"/>
     <s v="friends recommendation"/>
     <n v="3"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -2049,7 +2038,7 @@
     <x v="12"/>
     <s v="friends recommendation"/>
     <n v="4"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2064,7 +2053,7 @@
     <x v="33"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2079,7 +2068,7 @@
     <x v="15"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -2094,7 +2083,7 @@
     <x v="34"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2109,7 +2098,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="2"/>
     <s v="Hiếm khi"/>
@@ -2124,7 +2113,7 @@
     <x v="35"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="5"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -2139,7 +2128,7 @@
     <x v="14"/>
     <s v="social media, friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -2154,7 +2143,7 @@
     <x v="36"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2169,7 +2158,7 @@
     <x v="14"/>
     <s v="social media, friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng ngày"/>
@@ -2184,7 +2173,7 @@
     <x v="37"/>
     <s v="friends recommendation"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -2199,7 +2188,7 @@
     <x v="38"/>
     <s v="social media, friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -2214,7 +2203,7 @@
     <x v="4"/>
     <s v="social media, friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -2229,7 +2218,7 @@
     <x v="39"/>
     <s v="social media, friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hiếm khi"/>
@@ -2244,7 +2233,7 @@
     <x v="40"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -2259,7 +2248,7 @@
     <x v="39"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -2274,7 +2263,7 @@
     <x v="41"/>
     <s v="independent discovery"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -2289,7 +2278,7 @@
     <x v="42"/>
     <s v="social media"/>
     <n v="3"/>
-    <n v="2"/>
+    <x v="3"/>
     <n v="2"/>
     <n v="2"/>
     <s v="Hiếm khi"/>
@@ -2304,7 +2293,7 @@
     <x v="22"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tháng"/>
@@ -2319,7 +2308,7 @@
     <x v="14"/>
     <s v="friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -2334,7 +2323,7 @@
     <x v="14"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -2349,7 +2338,7 @@
     <x v="3"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2364,7 +2353,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="3"/>
     <s v="Hàng tháng"/>
@@ -2379,7 +2368,7 @@
     <x v="24"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -2394,7 +2383,7 @@
     <x v="3"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -2409,7 +2398,7 @@
     <x v="15"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -2424,7 +2413,7 @@
     <x v="43"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2439,7 +2428,7 @@
     <x v="19"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2454,7 +2443,7 @@
     <x v="44"/>
     <s v="friends recommendation"/>
     <n v="3"/>
-    <n v="1"/>
+    <x v="4"/>
     <n v="2"/>
     <n v="2"/>
     <s v="Hiếm khi"/>
@@ -2469,7 +2458,7 @@
     <x v="4"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -2484,7 +2473,7 @@
     <x v="9"/>
     <s v="social media, friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -2499,7 +2488,7 @@
     <x v="45"/>
     <s v="independent discovery, social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -2514,7 +2503,7 @@
     <x v="46"/>
     <s v="social media, friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng tháng"/>
@@ -2529,7 +2518,7 @@
     <x v="3"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2544,7 +2533,7 @@
     <x v="1"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -2559,7 +2548,7 @@
     <x v="14"/>
     <s v="friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2574,7 +2563,7 @@
     <x v="39"/>
     <s v="friends recommendation"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tháng"/>
@@ -2589,7 +2578,7 @@
     <x v="47"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2604,7 +2593,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -2619,7 +2608,7 @@
     <x v="48"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng tuần"/>
@@ -2634,7 +2623,7 @@
     <x v="18"/>
     <s v="independent discovery"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2649,7 +2638,7 @@
     <x v="11"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tháng"/>
@@ -2664,7 +2653,7 @@
     <x v="0"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -2679,7 +2668,7 @@
     <x v="49"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2694,7 +2683,7 @@
     <x v="50"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -2709,7 +2698,7 @@
     <x v="51"/>
     <s v="independent discovery"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2724,7 +2713,7 @@
     <x v="14"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="1"/>
     <s v="Hàng tuần"/>
@@ -2739,7 +2728,7 @@
     <x v="52"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2754,7 +2743,7 @@
     <x v="4"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="3"/>
     <s v="Hàng tuần"/>
@@ -2769,7 +2758,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng ngày"/>
@@ -2784,7 +2773,7 @@
     <x v="6"/>
     <s v="social media"/>
     <n v="2"/>
-    <n v="2"/>
+    <x v="3"/>
     <n v="3"/>
     <n v="2"/>
     <s v="Hiếm khi"/>
@@ -2799,7 +2788,7 @@
     <x v="53"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -2814,7 +2803,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -2829,7 +2818,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="3"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng tuần"/>
@@ -2844,7 +2833,7 @@
     <x v="4"/>
     <s v="social media, friends recommendation"/>
     <n v="3"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng tuần"/>
@@ -2859,7 +2848,7 @@
     <x v="54"/>
     <s v="social media, friends recommendation"/>
     <n v="2"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -2874,7 +2863,7 @@
     <x v="3"/>
     <s v="social media, friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hiếm khi"/>
@@ -2889,7 +2878,7 @@
     <x v="8"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="2"/>
     <n v="3"/>
     <s v="Hiếm khi"/>
@@ -2904,7 +2893,7 @@
     <x v="33"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -2919,7 +2908,7 @@
     <x v="3"/>
     <s v="friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hiếm khi"/>
@@ -2934,7 +2923,7 @@
     <x v="55"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tháng"/>
@@ -2949,7 +2938,7 @@
     <x v="10"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tháng"/>
@@ -2964,7 +2953,7 @@
     <x v="15"/>
     <s v="social media"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -2979,7 +2968,7 @@
     <x v="3"/>
     <s v="friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng tuần"/>
@@ -2994,7 +2983,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -3009,7 +2998,7 @@
     <x v="56"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -3024,7 +3013,7 @@
     <x v="3"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -3039,7 +3028,7 @@
     <x v="25"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -3054,7 +3043,7 @@
     <x v="3"/>
     <s v="friends recommendation"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng tháng"/>
@@ -3069,7 +3058,7 @@
     <x v="4"/>
     <s v="friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -3084,7 +3073,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -3099,7 +3088,7 @@
     <x v="33"/>
     <s v="friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -3114,7 +3103,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -3129,7 +3118,7 @@
     <x v="9"/>
     <s v="social media"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng ngày"/>
@@ -3144,7 +3133,7 @@
     <x v="57"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tháng"/>
@@ -3159,7 +3148,7 @@
     <x v="6"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -3174,7 +3163,7 @@
     <x v="3"/>
     <s v="social media"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng tháng"/>
@@ -3189,7 +3178,7 @@
     <x v="5"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -3204,7 +3193,7 @@
     <x v="8"/>
     <s v="friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng ngày"/>
@@ -3219,7 +3208,7 @@
     <x v="5"/>
     <s v="social media"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -3234,7 +3223,7 @@
     <x v="18"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tháng"/>
@@ -3249,7 +3238,7 @@
     <x v="58"/>
     <s v="social media"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="3"/>
     <s v="Hiếm khi"/>
@@ -3264,7 +3253,7 @@
     <x v="6"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="5"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -3279,7 +3268,7 @@
     <x v="3"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="2"/>
+    <x v="3"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -3294,7 +3283,7 @@
     <x v="11"/>
     <s v="social media, friends recommendation"/>
     <n v="4"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -3309,7 +3298,7 @@
     <x v="7"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng ngày"/>
@@ -3324,7 +3313,7 @@
     <x v="59"/>
     <s v="friends recommendation"/>
     <n v="4"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -3339,7 +3328,7 @@
     <x v="20"/>
     <s v="social media, friends recommendation"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng tuần"/>
@@ -3354,7 +3343,7 @@
     <x v="50"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="5"/>
     <s v="Hàng tuần"/>
@@ -3369,7 +3358,7 @@
     <x v="60"/>
     <s v="social media"/>
     <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="3"/>
     <s v="Hàng ngày"/>
@@ -3384,7 +3373,7 @@
     <x v="61"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="5"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="4"/>
     <s v="Hàng tháng"/>
@@ -3399,7 +3388,7 @@
     <x v="21"/>
     <s v="social media, friends recommendation"/>
     <n v="5"/>
-    <n v="4"/>
+    <x v="1"/>
     <n v="4"/>
     <n v="4"/>
     <s v="Hàng tuần"/>
@@ -4550,7 +4539,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3A1AEFF-9D19-4555-AC15-609E70531B31}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F3A1AEFF-9D19-4555-AC15-609E70531B31}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B66" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0">
@@ -4875,8 +4864,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD7D462A-5672-494C-938C-393C689EB239}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:K11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD7D462A-5672-494C-938C-393C689EB239}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0">
       <items count="3">
@@ -4886,7 +4875,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="7">
         <item x="1"/>
         <item x="0"/>
@@ -4899,14 +4888,23 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="10">
         <item x="0"/>
         <item x="3"/>
@@ -4922,35 +4920,9 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="12"/>
   </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="12"/>
-  </colFields>
-  <colItems count="10">
+  <rowItems count="10">
     <i>
       <x/>
     </i>
@@ -4981,228 +4953,13 @@
     <i t="grand">
       <x/>
     </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of ease of use" fld="5" subtotal="average" baseField="2" baseItem="3" numFmtId="164"/>
+    <dataField name="Average of domain proficiency" fld="6" subtotal="average" baseField="12" baseItem="0"/>
   </dataFields>
-  <chartFormats count="18">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="12" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5216,7 +4973,91 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{824EFD36-BE13-4C92-8FC4-BF60A07FF80C}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05F4F7CA-4114-42F1-A17F-DD0B40EC4636}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of perceived usefulness" fld="7" subtotal="average" baseField="12" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{824EFD36-BE13-4C92-8FC4-BF60A07FF80C}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -5323,19 +5164,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{37B2022D-EA20-4AA3-81B2-0F950BF796C2}" name="clean_data__4" displayName="clean_data__4" ref="A1:M164" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:M164" xr:uid="{37B2022D-EA20-4AA3-81B2-0F950BF796C2}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{31372863-46A4-4345-A75F-46A69FB2A61A}" uniqueName="1" name="Gender" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{D283A1CA-F1A3-41C2-86DA-064976DD0AC1}" uniqueName="2" name="raw major" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{A5A34FE9-C770-4AB9-8E65-B765A6401964}" uniqueName="3" name="academic year" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{4428FE39-5AAF-4C83-B991-98BDF65AD6AE}" uniqueName="4" name="apps used" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{329E35B8-929C-493D-9D02-36CE8E2489B9}" uniqueName="5" name="recommendation" queryTableFieldId="5" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{31372863-46A4-4345-A75F-46A69FB2A61A}" uniqueName="1" name="Gender" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{D283A1CA-F1A3-41C2-86DA-064976DD0AC1}" uniqueName="2" name="raw major" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{A5A34FE9-C770-4AB9-8E65-B765A6401964}" uniqueName="3" name="academic year" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{4428FE39-5AAF-4C83-B991-98BDF65AD6AE}" uniqueName="4" name="apps used" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{329E35B8-929C-493D-9D02-36CE8E2489B9}" uniqueName="5" name="recommendation" queryTableFieldId="5" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{DD8E33D2-4193-4264-97C8-438CF27B3712}" uniqueName="6" name="ease of use" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{36679DB3-C970-426E-AEA4-D1DE6FEA9075}" uniqueName="7" name="domain proficiency" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{4D6BDFA5-C226-405E-AE8F-A1FBE8C857E5}" uniqueName="8" name="perceived usefulness" queryTableFieldId="8"/>
     <tableColumn id="9" xr3:uid="{FFAF4529-1C1E-4FE6-9312-2533C63CB980}" uniqueName="9" name="intention" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{07FF9219-A618-4610-9B8D-C3CA5218028D}" uniqueName="10" name="frequency" queryTableFieldId="10" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{B04CF021-15CB-41C3-89A5-EB3C4D95837E}" uniqueName="11" name="academic application" queryTableFieldId="11" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{E3CBE5FE-8D3F-4553-B984-BC3395CF0B6F}" uniqueName="12" name="research application" queryTableFieldId="12" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{53EBDF85-8E0A-4783-9E03-C1C5B34EC72C}" uniqueName="13" name="Major" queryTableFieldId="13" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{07FF9219-A618-4610-9B8D-C3CA5218028D}" uniqueName="10" name="frequency" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{B04CF021-15CB-41C3-89A5-EB3C4D95837E}" uniqueName="11" name="academic application" queryTableFieldId="11" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{E3CBE5FE-8D3F-4553-B984-BC3395CF0B6F}" uniqueName="12" name="research application" queryTableFieldId="12" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{53EBDF85-8E0A-4783-9E03-C1C5B34EC72C}" uniqueName="13" name="Major" queryTableFieldId="13" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5610,583 +5451,583 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="45.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="34" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="42.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="39.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="36" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="46" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="44.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="46.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="66.36328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="61.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="61.28515625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="70" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="54.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="42.90625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="51.6328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="47.1796875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="50.7265625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="43.81640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="50.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="43.90625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="57.1796875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="42.08984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="50.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="54.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="43" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="11" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="35.7265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66">
         <v>163</v>
       </c>
     </row>
@@ -6198,266 +6039,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA79666-4098-402D-B8C8-061BD7B7ECBF}">
-  <dimension ref="A3:K11"/>
+  <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" s="4">
+        <v>3.7678571428571428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" s="4">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B6" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B7" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B8" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I4" t="s">
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="J4" t="s">
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="s">
+      <c r="B12" s="4">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3.8571428571428572</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4.083333333333333</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="F6" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
-        <v>4</v>
-      </c>
-      <c r="K6" s="4">
-        <v>4.1724137931034484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4.068965517241379</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
-        <v>5</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
-        <v>5</v>
-      </c>
-      <c r="K7" s="4">
-        <v>4.1470588235294121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4.416666666666667</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4">
-        <v>4</v>
-      </c>
-      <c r="H8" s="4">
-        <v>4</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
-        <v>4.416666666666667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="4">
-        <v>4.0892857142857144</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4.083333333333333</v>
-      </c>
-      <c r="D11" s="4">
-        <v>4</v>
-      </c>
-      <c r="E11" s="4">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="G11" s="4">
-        <v>4</v>
-      </c>
-      <c r="H11" s="4">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3</v>
-      </c>
-      <c r="J11" s="4">
-        <v>4.333333333333333</v>
-      </c>
-      <c r="K11" s="4">
-        <v>4.110429447852761</v>
+      <c r="B13" s="4">
+        <v>3.7546012269938651</v>
       </c>
     </row>
   </sheetData>
@@ -6466,32 +6160,139 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F71C8C6-5C1D-41D1-8B4E-E62DBEBB8532}">
+  <dimension ref="A3:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4.0535714285714288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4">
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EA4F1A-EA77-438C-B9B5-30BB43E71F50}">
   <dimension ref="A1:P164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="1" sqref="E1:E32 H1:H32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6532,7 +6333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6573,7 +6374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6620,7 +6421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6664,7 +6465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6708,7 +6509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6752,7 +6553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6796,7 +6597,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -6840,7 +6641,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6884,7 +6685,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -6928,7 +6729,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -6972,7 +6773,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -7013,7 +6814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -7054,7 +6855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -7095,7 +6896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -7136,7 +6937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -7177,7 +6978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -7218,7 +7019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -7259,7 +7060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -7300,7 +7101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -7341,7 +7142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -7382,7 +7183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -7423,7 +7224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -7464,7 +7265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -7505,7 +7306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -7546,7 +7347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -7587,7 +7388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -7628,7 +7429,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -7669,7 +7470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -7710,7 +7511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -7751,7 +7552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -7792,7 +7593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -7833,7 +7634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -7874,7 +7675,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -7915,7 +7716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -7956,7 +7757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -7997,7 +7798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -8038,7 +7839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -8079,7 +7880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -8120,7 +7921,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -8161,7 +7962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -8202,7 +8003,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -8243,7 +8044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -8284,7 +8085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -8325,7 +8126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -8366,7 +8167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -8407,7 +8208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -8448,7 +8249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -8489,7 +8290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -8530,7 +8331,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -8571,7 +8372,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -8612,7 +8413,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -8653,7 +8454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -8694,7 +8495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -8735,7 +8536,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -8776,7 +8577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -8817,7 +8618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -8858,7 +8659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -8899,7 +8700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -8940,7 +8741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -8981,7 +8782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -9022,7 +8823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -9063,7 +8864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -9104,7 +8905,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -9145,7 +8946,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -9186,7 +8987,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -9227,7 +9028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -9268,7 +9069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -9309,7 +9110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -9350,7 +9151,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -9391,7 +9192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -9432,7 +9233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -9473,7 +9274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -9514,7 +9315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -9555,7 +9356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -9596,7 +9397,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -9637,7 +9438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -9678,7 +9479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -9719,7 +9520,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -9760,7 +9561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -9801,7 +9602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -9842,7 +9643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -9883,7 +9684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -9924,7 +9725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -9965,7 +9766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -10006,7 +9807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -10047,7 +9848,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -10088,7 +9889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -10129,7 +9930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -10170,7 +9971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -10211,7 +10012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -10252,7 +10053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -10293,7 +10094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -10334,7 +10135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -10375,7 +10176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -10416,7 +10217,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -10457,7 +10258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -10498,7 +10299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -10539,7 +10340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -10580,7 +10381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -10621,7 +10422,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -10662,7 +10463,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -10703,7 +10504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -10744,7 +10545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -10785,7 +10586,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -10826,7 +10627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -10867,7 +10668,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -10908,7 +10709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>18</v>
       </c>
@@ -10949,7 +10750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -10990,7 +10791,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>18</v>
       </c>
@@ -11031,7 +10832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -11072,7 +10873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -11113,7 +10914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -11154,7 +10955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -11195,7 +10996,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -11236,7 +11037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -11277,7 +11078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -11318,7 +11119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -11359,7 +11160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -11400,7 +11201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -11441,7 +11242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -11482,7 +11283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -11523,7 +11324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>18</v>
       </c>
@@ -11564,7 +11365,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>18</v>
       </c>
@@ -11605,7 +11406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -11646,7 +11447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -11687,7 +11488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -11728,7 +11529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -11769,7 +11570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -11810,7 +11611,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -11851,7 +11652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -11892,7 +11693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -11933,7 +11734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -11974,7 +11775,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -12015,7 +11816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -12056,7 +11857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -12097,7 +11898,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -12138,7 +11939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>18</v>
       </c>
@@ -12179,7 +11980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -12220,7 +12021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -12261,7 +12062,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -12302,7 +12103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>18</v>
       </c>
@@ -12343,7 +12144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -12384,7 +12185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -12425,7 +12226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -12466,7 +12267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -12507,7 +12308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -12548,7 +12349,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -12589,7 +12390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -12630,7 +12431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -12671,7 +12472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -12712,7 +12513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -12753,7 +12554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -12794,7 +12595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -12835,7 +12636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -12876,7 +12677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -12917,7 +12718,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -12958,7 +12759,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -12999,7 +12800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>18</v>
       </c>
@@ -13040,7 +12841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -13081,7 +12882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -13122,7 +12923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -13163,7 +12964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -13204,7 +13005,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>18</v>
       </c>
@@ -13247,7 +13048,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:M164">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2=$O$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13264,7 +13065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DC27DB-6902-4848-9AE1-45599287E137}">
   <dimension ref="A3:B11"/>
   <sheetViews>
@@ -13272,91 +13073,91 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="5">
+        <v>180</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>162</v>
       </c>
     </row>
@@ -13365,7 +13166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20E2C44-81D3-4C4C-AA91-095E508F3DA3}">
   <dimension ref="A1:G163"/>
   <sheetViews>
@@ -13373,1698 +13174,1698 @@
       <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
         <v>173</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>174</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>175</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" t="s">
         <v>177</v>
       </c>
-      <c r="C2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>175</v>
       </c>
-      <c r="E3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>177</v>
-      </c>
       <c r="C4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13" t="s">
         <v>174</v>
       </c>
-      <c r="E11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" t="s">
         <v>173</v>
       </c>
-      <c r="E17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
       <c r="B23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" t="s">
         <v>178</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" t="s">
         <v>173</v>
       </c>
-      <c r="D23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>178</v>
-      </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" t="s">
-        <v>174</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="D53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C34" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" t="s">
-        <v>173</v>
-      </c>
-      <c r="D36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C37" t="s">
-        <v>174</v>
-      </c>
-      <c r="D37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s">
-        <v>173</v>
-      </c>
-      <c r="C43" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" t="s">
-        <v>178</v>
-      </c>
-      <c r="C48" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" t="s">
-        <v>178</v>
-      </c>
-      <c r="C50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" t="s">
-        <v>173</v>
-      </c>
-      <c r="D51" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" t="s">
-        <v>177</v>
-      </c>
-      <c r="C53" t="s">
-        <v>178</v>
-      </c>
-      <c r="D53" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" t="s">
-        <v>178</v>
-      </c>
       <c r="D56" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" t="s">
         <v>173</v>
       </c>
-      <c r="D58" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" t="s">
-        <v>178</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63" t="s">
-        <v>177</v>
-      </c>
-      <c r="C63" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" t="s">
-        <v>175</v>
-      </c>
-      <c r="E63" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
         <v>182</v>
       </c>
-      <c r="B66" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" t="s">
-        <v>178</v>
-      </c>
-      <c r="C68" t="s">
-        <v>173</v>
-      </c>
-      <c r="D68" t="s">
-        <v>174</v>
-      </c>
-      <c r="E68" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>16</v>
       </c>
       <c r="B73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" t="s">
+        <v>173</v>
+      </c>
+      <c r="D80" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82" t="s">
+        <v>176</v>
+      </c>
+      <c r="D82" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" t="s">
+        <v>171</v>
+      </c>
+      <c r="E86" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" t="s">
         <v>177</v>
       </c>
-      <c r="C73" t="s">
-        <v>178</v>
-      </c>
-      <c r="D73" t="s">
-        <v>173</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="D88" t="s">
         <v>174</v>
       </c>
-      <c r="F73" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>16</v>
-      </c>
-      <c r="B74" t="s">
-        <v>178</v>
-      </c>
-      <c r="C74" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>16</v>
-      </c>
-      <c r="B75" t="s">
-        <v>173</v>
-      </c>
-      <c r="C75" t="s">
-        <v>174</v>
-      </c>
-      <c r="D75" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" t="s">
-        <v>177</v>
-      </c>
-      <c r="C76" t="s">
-        <v>178</v>
-      </c>
-      <c r="D76" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>16</v>
-      </c>
-      <c r="B78" t="s">
-        <v>177</v>
-      </c>
-      <c r="C78" t="s">
-        <v>178</v>
-      </c>
-      <c r="D78" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80" t="s">
-        <v>173</v>
-      </c>
-      <c r="C80" t="s">
-        <v>175</v>
-      </c>
-      <c r="D80" t="s">
-        <v>176</v>
-      </c>
-      <c r="E80" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" t="s">
-        <v>177</v>
-      </c>
-      <c r="C82" t="s">
-        <v>178</v>
-      </c>
-      <c r="D82" t="s">
-        <v>174</v>
-      </c>
-      <c r="E82" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>16</v>
-      </c>
-      <c r="B85" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>16</v>
-      </c>
-      <c r="B86" t="s">
-        <v>177</v>
-      </c>
-      <c r="C86" t="s">
-        <v>178</v>
-      </c>
-      <c r="D86" t="s">
-        <v>173</v>
-      </c>
-      <c r="E86" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>16</v>
-      </c>
-      <c r="B87" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" t="s">
-        <v>175</v>
-      </c>
-      <c r="C88" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C90" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>16</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>175</v>
+      </c>
+      <c r="C95" t="s">
+        <v>171</v>
+      </c>
+      <c r="D95" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>171</v>
+      </c>
+      <c r="C99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" t="s">
+        <v>171</v>
+      </c>
+      <c r="D103" t="s">
+        <v>185</v>
+      </c>
+      <c r="E103" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>176</v>
+      </c>
+      <c r="C109" t="s">
+        <v>172</v>
+      </c>
+      <c r="D109" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>175</v>
+      </c>
+      <c r="C112" t="s">
+        <v>171</v>
+      </c>
+      <c r="D112" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>176</v>
+      </c>
+      <c r="C113" t="s">
+        <v>171</v>
+      </c>
+      <c r="D113" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" t="s">
+        <v>172</v>
+      </c>
+      <c r="D114" t="s">
+        <v>173</v>
+      </c>
+      <c r="E114" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
+        <v>176</v>
+      </c>
+      <c r="C115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" t="s">
+        <v>172</v>
+      </c>
+      <c r="E115" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" t="s">
+        <v>173</v>
+      </c>
+      <c r="D116" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117" t="s">
+        <v>173</v>
+      </c>
+      <c r="E117" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="s">
+        <v>175</v>
+      </c>
+      <c r="C119" t="s">
+        <v>176</v>
+      </c>
+      <c r="D119" t="s">
         <v>177</v>
       </c>
-      <c r="C90" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>16</v>
-      </c>
-      <c r="B91" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>16</v>
-      </c>
-      <c r="B92" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>16</v>
-      </c>
-      <c r="B95" t="s">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>16</v>
+      </c>
+      <c r="B122" t="s">
+        <v>176</v>
+      </c>
+      <c r="C122" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s">
+        <v>175</v>
+      </c>
+      <c r="C123" t="s">
+        <v>171</v>
+      </c>
+      <c r="D123" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" t="s">
         <v>177</v>
       </c>
-      <c r="C95" t="s">
-        <v>173</v>
-      </c>
-      <c r="D95" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>16</v>
-      </c>
-      <c r="B97" t="s">
-        <v>173</v>
-      </c>
-      <c r="C97" t="s">
-        <v>174</v>
-      </c>
-      <c r="D97" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>16</v>
-      </c>
-      <c r="B98" t="s">
-        <v>177</v>
-      </c>
-      <c r="C98" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>16</v>
-      </c>
-      <c r="B99" t="s">
-        <v>173</v>
-      </c>
-      <c r="C99" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>16</v>
-      </c>
-      <c r="B100" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>16</v>
-      </c>
-      <c r="B101" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>16</v>
-      </c>
-      <c r="B102" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>16</v>
-      </c>
-      <c r="B103" t="s">
-        <v>177</v>
-      </c>
-      <c r="C103" t="s">
-        <v>173</v>
-      </c>
-      <c r="D103" t="s">
-        <v>187</v>
-      </c>
-      <c r="E103" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>16</v>
-      </c>
-      <c r="B104" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>16</v>
-      </c>
-      <c r="B106" t="s">
-        <v>177</v>
-      </c>
-      <c r="C106" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>16</v>
-      </c>
-      <c r="B107" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>16</v>
-      </c>
-      <c r="B108" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109" t="s">
-        <v>178</v>
-      </c>
-      <c r="C109" t="s">
-        <v>174</v>
-      </c>
-      <c r="D109" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" t="s">
-        <v>178</v>
-      </c>
-      <c r="C111" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>16</v>
-      </c>
-      <c r="B112" t="s">
-        <v>177</v>
-      </c>
-      <c r="C112" t="s">
-        <v>173</v>
-      </c>
-      <c r="D112" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>16</v>
-      </c>
-      <c r="B113" t="s">
-        <v>178</v>
-      </c>
-      <c r="C113" t="s">
-        <v>173</v>
-      </c>
-      <c r="D113" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>16</v>
-      </c>
-      <c r="B114" t="s">
-        <v>173</v>
-      </c>
-      <c r="C114" t="s">
-        <v>174</v>
-      </c>
-      <c r="D114" t="s">
-        <v>175</v>
-      </c>
-      <c r="E114" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>16</v>
-      </c>
-      <c r="B115" t="s">
-        <v>178</v>
-      </c>
-      <c r="C115" t="s">
-        <v>173</v>
-      </c>
-      <c r="D115" t="s">
-        <v>174</v>
-      </c>
-      <c r="E115" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>16</v>
-      </c>
-      <c r="B116" t="s">
-        <v>174</v>
-      </c>
-      <c r="C116" t="s">
-        <v>175</v>
-      </c>
-      <c r="D116" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>16</v>
-      </c>
-      <c r="B117" t="s">
-        <v>177</v>
-      </c>
-      <c r="C117" t="s">
-        <v>178</v>
-      </c>
-      <c r="D117" t="s">
-        <v>175</v>
-      </c>
-      <c r="E117" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>16</v>
-      </c>
-      <c r="B118" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>16</v>
-      </c>
-      <c r="B119" t="s">
-        <v>177</v>
-      </c>
-      <c r="C119" t="s">
-        <v>178</v>
-      </c>
-      <c r="D119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>16</v>
-      </c>
-      <c r="B120" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>16</v>
-      </c>
-      <c r="B122" t="s">
-        <v>178</v>
-      </c>
-      <c r="C122" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>16</v>
-      </c>
-      <c r="B123" t="s">
-        <v>177</v>
-      </c>
-      <c r="C123" t="s">
-        <v>173</v>
-      </c>
-      <c r="D123" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>16</v>
-      </c>
-      <c r="B126" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>16</v>
-      </c>
-      <c r="B127" t="s">
-        <v>177</v>
-      </c>
-      <c r="C127" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>16</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C130" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>16</v>
       </c>
       <c r="B133" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C133" t="s">
+        <v>176</v>
+      </c>
+      <c r="D133" t="s">
+        <v>171</v>
+      </c>
+      <c r="E133" t="s">
+        <v>172</v>
+      </c>
+      <c r="F133" t="s">
+        <v>173</v>
+      </c>
+      <c r="G133" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>16</v>
+      </c>
+      <c r="B134" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" t="s">
+        <v>172</v>
+      </c>
+      <c r="D134" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" t="s">
+        <v>175</v>
+      </c>
+      <c r="C137" t="s">
+        <v>176</v>
+      </c>
+      <c r="D137" t="s">
+        <v>171</v>
+      </c>
+      <c r="E137" t="s">
+        <v>172</v>
+      </c>
+      <c r="F137" t="s">
+        <v>174</v>
+      </c>
+      <c r="G137" t="s">
         <v>178</v>
       </c>
-      <c r="D133" t="s">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s">
+        <v>175</v>
+      </c>
+      <c r="C139" t="s">
+        <v>176</v>
+      </c>
+      <c r="D139" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>176</v>
+      </c>
+      <c r="C143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" t="s">
+        <v>176</v>
+      </c>
+      <c r="D146" t="s">
+        <v>171</v>
+      </c>
+      <c r="E146" t="s">
         <v>173</v>
       </c>
-      <c r="E133" t="s">
-        <v>174</v>
-      </c>
-      <c r="F133" t="s">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" t="s">
+        <v>176</v>
+      </c>
+      <c r="C147" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" t="s">
         <v>175</v>
       </c>
-      <c r="G133" t="s">
+      <c r="C149" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>16</v>
-      </c>
-      <c r="B134" t="s">
-        <v>173</v>
-      </c>
-      <c r="C134" t="s">
-        <v>174</v>
-      </c>
-      <c r="D134" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>16</v>
-      </c>
-      <c r="B137" t="s">
-        <v>177</v>
-      </c>
-      <c r="C137" t="s">
-        <v>178</v>
-      </c>
-      <c r="D137" t="s">
-        <v>173</v>
-      </c>
-      <c r="E137" t="s">
-        <v>174</v>
-      </c>
-      <c r="F137" t="s">
-        <v>176</v>
-      </c>
-      <c r="G137" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>16</v>
-      </c>
-      <c r="B139" t="s">
-        <v>177</v>
-      </c>
-      <c r="C139" t="s">
-        <v>178</v>
-      </c>
-      <c r="D139" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>16</v>
-      </c>
-      <c r="B141" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>16</v>
-      </c>
-      <c r="B143" t="s">
-        <v>178</v>
-      </c>
-      <c r="C143" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>16</v>
-      </c>
-      <c r="B145" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>16</v>
-      </c>
-      <c r="B146" t="s">
-        <v>177</v>
-      </c>
-      <c r="C146" t="s">
-        <v>178</v>
-      </c>
-      <c r="D146" t="s">
-        <v>173</v>
-      </c>
-      <c r="E146" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>16</v>
-      </c>
-      <c r="B147" t="s">
-        <v>178</v>
-      </c>
-      <c r="C147" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>16</v>
-      </c>
-      <c r="B149" t="s">
-        <v>177</v>
-      </c>
-      <c r="C149" t="s">
-        <v>178</v>
-      </c>
       <c r="D149" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>16</v>
       </c>
       <c r="B151" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C151" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D151" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>16</v>
+      </c>
+      <c r="B152" t="s">
+        <v>175</v>
+      </c>
+      <c r="C152" t="s">
+        <v>171</v>
+      </c>
+      <c r="D152" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>180</v>
+      </c>
+      <c r="B153" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>16</v>
-      </c>
-      <c r="B152" t="s">
-        <v>177</v>
-      </c>
-      <c r="C152" t="s">
-        <v>173</v>
-      </c>
-      <c r="D152" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" t="s">
+        <v>176</v>
+      </c>
+      <c r="C154" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>16</v>
+      </c>
+      <c r="B156" t="s">
+        <v>176</v>
+      </c>
+      <c r="C156" t="s">
+        <v>171</v>
+      </c>
+      <c r="D156" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157" t="s">
+        <v>175</v>
+      </c>
+      <c r="C157" t="s">
+        <v>176</v>
+      </c>
+      <c r="D157" t="s">
+        <v>172</v>
+      </c>
+      <c r="E157" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>182</v>
-      </c>
-      <c r="B153" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>16</v>
-      </c>
-      <c r="B154" t="s">
-        <v>178</v>
-      </c>
-      <c r="C154" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>16</v>
-      </c>
-      <c r="B156" t="s">
-        <v>178</v>
-      </c>
-      <c r="C156" t="s">
-        <v>173</v>
-      </c>
-      <c r="D156" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>16</v>
-      </c>
-      <c r="B157" t="s">
-        <v>177</v>
-      </c>
-      <c r="C157" t="s">
-        <v>178</v>
-      </c>
-      <c r="D157" t="s">
-        <v>174</v>
-      </c>
-      <c r="E157" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>87</v>
       </c>
       <c r="B158" t="s">
+        <v>171</v>
+      </c>
+      <c r="C158" t="s">
         <v>173</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>16</v>
+      </c>
+      <c r="B159" t="s">
+        <v>176</v>
+      </c>
+      <c r="C159" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" t="s">
+        <v>172</v>
+      </c>
+      <c r="C160" t="s">
+        <v>173</v>
+      </c>
+      <c r="D160" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>16</v>
+      </c>
+      <c r="B161" t="s">
         <v>175</v>
       </c>
-      <c r="D158" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>16</v>
-      </c>
-      <c r="B159" t="s">
-        <v>178</v>
-      </c>
-      <c r="C159" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>16</v>
-      </c>
-      <c r="B160" t="s">
-        <v>174</v>
-      </c>
-      <c r="C160" t="s">
-        <v>175</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="C161" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>16</v>
-      </c>
-      <c r="B161" t="s">
-        <v>177</v>
-      </c>
-      <c r="C161" t="s">
-        <v>178</v>
-      </c>
       <c r="D161" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E161" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C163" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -15073,13 +14874,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
